--- a/IntegrationstestPlan.xlsx
+++ b/IntegrationstestPlan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au588570_uni_au_dk/Documents/4. semester/Software T/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\troel\OneDrive - Aarhus universitet\Skole\Uni\4. semester\SWT\MicrowaveOvenGrp9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB9309A1-191A-4032-B9BC-5D55C5A05796}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7C6FCA-E8F0-4196-BD2F-87AEA6B54D56}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{1352ABC7-6360-4182-BFD5-E3A943094EFF}"/>
+    <workbookView xWindow="1464" yWindow="1464" windowWidth="17280" windowHeight="8964" xr2:uid="{1352ABC7-6360-4182-BFD5-E3A943094EFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="14">
   <si>
     <t>Step #</t>
   </si>
@@ -79,10 +79,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -108,9 +115,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,24 +437,24 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,7 +486,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -500,7 +509,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -523,7 +532,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -552,7 +561,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -578,33 +587,37 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6">
+    <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -624,7 +637,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -644,7 +657,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -673,7 +686,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -684,7 +697,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -713,7 +726,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -747,5 +760,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/IntegrationstestPlan.xlsx
+++ b/IntegrationstestPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\troel\OneDrive - Aarhus universitet\Skole\Uni\4. semester\SWT\MicrowaveOvenGrp9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7C6FCA-E8F0-4196-BD2F-87AEA6B54D56}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A95FFD5-4951-4489-B590-2BD052847DDD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1464" yWindow="1464" windowWidth="17280" windowHeight="8964" xr2:uid="{1352ABC7-6360-4182-BFD5-E3A943094EFF}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="24">
   <si>
     <t>Step #</t>
   </si>
@@ -73,13 +73,43 @@
   </si>
   <si>
     <t>T/S</t>
+  </si>
+  <si>
+    <t>Kolonne1</t>
+  </si>
+  <si>
+    <t>Kolonne2</t>
+  </si>
+  <si>
+    <t>Kolonne3</t>
+  </si>
+  <si>
+    <t>Kolonne4</t>
+  </si>
+  <si>
+    <t>Kolonne5</t>
+  </si>
+  <si>
+    <t>Kolonne6</t>
+  </si>
+  <si>
+    <t>Kolonne7</t>
+  </si>
+  <si>
+    <t>Kolonne8</t>
+  </si>
+  <si>
+    <t>Kolonne9</t>
+  </si>
+  <si>
+    <t>Kolonne10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +124,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -103,7 +149,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -111,20 +157,396 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="14">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -135,6 +557,25 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1417D36A-0C31-4460-A269-74B7C73178EB}" name="Tabel1" displayName="Tabel1" ref="A1:J13" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
+  <autoFilter ref="A1:J13" xr:uid="{B53798F2-3CA6-43E3-B4F2-B9AF43944137}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{7AA26849-7383-4132-9159-046496BC2C6B}" name="Kolonne1" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{A6527347-2956-46F4-9A80-7EE75F825022}" name="Kolonne2" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{4D3B4BEE-53C5-407B-BEB1-F71D9692B637}" name="Kolonne3" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{E84ED466-25EF-49D6-B0A1-0DDFE7F69C4E}" name="Kolonne4" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{99BE2CBF-6D42-4F7B-BE91-AB31B1F942AF}" name="Kolonne5" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{6723FCAE-D155-453F-B7D8-4932A23C82A1}" name="Kolonne6" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{01B2D8E2-55DD-41EF-92A7-E4AA2FEBB1E3}" name="Kolonne7" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{AFE338FA-281D-48F2-A505-3B4B8F963853}" name="Kolonne8" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{CB7E00F1-7FB2-4FD5-AAFF-DC2B5CD9CBD9}" name="Kolonne9" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{DF26829F-6EE8-455A-92A5-11A490B922D7}" name="Kolonne10" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -434,332 +875,402 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E10041E-E657-4491-B854-B593411DD3B9}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="J13" sqref="A2:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" customWidth="1"/>
+    <col min="5" max="6" width="7" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="6.44140625" customWidth="1"/>
+    <col min="10" max="10" width="7.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
+      <c r="A1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
+      <c r="C2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="11">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" t="s">
-        <v>12</v>
-      </c>
+      <c r="A4" s="11">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="11">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="A7" s="11">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="A8" s="11">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="A9" s="11">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="A10" s="11">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" t="s">
-        <v>11</v>
+      <c r="J11" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="A12" s="12">
         <v>10</v>
       </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" t="s">
-        <v>11</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="B12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="12">
+        <v>11</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="10" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>